--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>333810.8487088649</v>
+        <v>347537.206846283</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>64504.44331886784</v>
       </c>
       <c r="E4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="F4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="G4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="H4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="I4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="J4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="K4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="L4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="M4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="N4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="O4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="P4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
     </row>
     <row r="5">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9375.362212578577</v>
+        <v>9375.362212578584</v>
       </c>
       <c r="C6" t="n">
-        <v>9375.362212578562</v>
+        <v>9375.362212578584</v>
       </c>
       <c r="D6" t="n">
-        <v>9375.362212578562</v>
+        <v>9375.362212578555</v>
       </c>
       <c r="E6" t="n">
-        <v>-60616.72795730454</v>
+        <v>-60616.72795730459</v>
       </c>
       <c r="F6" t="n">
         <v>72483.27204269548</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>347537.206846283</v>
+        <v>222427.3080488063</v>
       </c>
     </row>
     <row r="7">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9375.362212578584</v>
+        <v>-5775.311757456195</v>
       </c>
       <c r="C6" t="n">
-        <v>9375.362212578584</v>
+        <v>-5775.31175745618</v>
       </c>
       <c r="D6" t="n">
-        <v>9375.362212578555</v>
+        <v>-5775.311757456209</v>
       </c>
       <c r="E6" t="n">
-        <v>-60616.72795730459</v>
+        <v>-75426.7447964185</v>
       </c>
       <c r="F6" t="n">
-        <v>72483.27204269548</v>
+        <v>57673.25520358158</v>
       </c>
       <c r="G6" t="n">
-        <v>72483.27204269548</v>
+        <v>57673.25520358158</v>
       </c>
       <c r="H6" t="n">
-        <v>72483.27204269548</v>
+        <v>57673.25520358158</v>
       </c>
       <c r="I6" t="n">
-        <v>72483.27204269548</v>
+        <v>57673.25520358158</v>
       </c>
       <c r="J6" t="n">
-        <v>72483.27204269548</v>
+        <v>57673.25520358158</v>
       </c>
       <c r="K6" t="n">
-        <v>72483.27204269548</v>
+        <v>57673.25520358158</v>
       </c>
       <c r="L6" t="n">
-        <v>72483.27204269548</v>
+        <v>57673.25520358158</v>
       </c>
       <c r="M6" t="n">
-        <v>72483.27204269548</v>
+        <v>57673.25520358158</v>
       </c>
       <c r="N6" t="n">
-        <v>72483.27204269548</v>
+        <v>57673.25520358158</v>
       </c>
       <c r="O6" t="n">
-        <v>72483.27204269548</v>
+        <v>57673.25520358158</v>
       </c>
       <c r="P6" t="n">
-        <v>72483.27204269548</v>
+        <v>57673.25520358158</v>
       </c>
     </row>
   </sheetData>
